--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1572.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1572.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.076250761115388</v>
+        <v>0.9042705297470093</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.094759225845337</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.8487009406089783</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.17652416229248</v>
       </c>
       <c r="E1">
-        <v>1.0882996626162</v>
+        <v>2.93181300163269</v>
       </c>
     </row>
   </sheetData>
